--- a/Medium_Cdw_fat.xlsx
+++ b/Medium_Cdw_fat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\Master Thesis\Master\Mile 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57B12B1-CF1E-40D7-8AD9-FF384B120B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C9DAFC-2D8A-4337-BCC5-5C37FAB97E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5B3890D5-87D8-4B68-895C-178D25EE6879}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5B3890D5-87D8-4B68-895C-178D25EE6879}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -1365,9 +1365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47C8AFB-1A86-42D2-B27A-0B75D26398B2}">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4792,7 +4792,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -4910,7 +4910,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -6039,7 +6039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7136D73-1590-431A-ADBE-2D73140BB209}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+    <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="C282">
         <f>Samples!$B$30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282">
         <f>Samples!$E$30</f>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="C283">
         <f>C282</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283">
         <f t="shared" ref="D283:D291" si="115">D282</f>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="C284">
         <f>C283</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284">
         <f t="shared" si="115"/>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="C285">
         <f t="shared" ref="C285:C291" si="116">C284</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D285">
         <f t="shared" si="115"/>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="C286">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D286">
         <f t="shared" si="115"/>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="C287">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287">
         <f t="shared" si="115"/>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="C288">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288">
         <f t="shared" si="115"/>
@@ -12078,7 +12078,7 @@
       </c>
       <c r="C289">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289">
         <f t="shared" si="115"/>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="C290">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290">
         <f t="shared" si="115"/>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D291">
         <f t="shared" si="115"/>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="C292">
         <f>Samples!$B$31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D292">
         <f>Samples!$E$31</f>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="C293">
         <f>C292</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D293">
         <f t="shared" ref="D293:D301" si="119">D292</f>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="C294">
         <f>C293</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D294">
         <f t="shared" si="119"/>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="C295">
         <f t="shared" ref="C295:C301" si="120">C294</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D295">
         <f t="shared" si="119"/>
@@ -12224,7 +12224,7 @@
       </c>
       <c r="C296">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296">
         <f t="shared" si="119"/>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="C297">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297">
         <f t="shared" si="119"/>
@@ -12266,7 +12266,7 @@
       </c>
       <c r="C298">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298">
         <f t="shared" si="119"/>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="C299">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299">
         <f t="shared" si="119"/>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="C300">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300">
         <f t="shared" si="119"/>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="C301">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <f t="shared" si="119"/>
